--- a/TestCaseData/TestCaseData_p2_desktop.xlsx
+++ b/TestCaseData/TestCaseData_p2_desktop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="113">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -270,15 +270,6 @@
     <t>Self-employed</t>
   </si>
   <si>
-    <t>CHARITY</t>
-  </si>
-  <si>
-    <t>JDACOMMON</t>
-  </si>
-  <si>
-    <t>3635 BAY ST</t>
-  </si>
-  <si>
     <t>p2</t>
   </si>
   <si>
@@ -294,18 +285,6 @@
     <t>35000</t>
   </si>
   <si>
-    <t>Lane</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>7583</t>
-  </si>
-  <si>
     <t>&amp;esourceid=14349</t>
   </si>
   <si>
@@ -346,6 +325,39 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>SJRSABD</t>
+  </si>
+  <si>
+    <t>VVPRDAG</t>
+  </si>
+  <si>
+    <t>1794 NBUTZF UQ</t>
+  </si>
+  <si>
+    <t>85248</t>
+  </si>
+  <si>
+    <t>CHANDLER</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>9796</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>855</t>
+  </si>
+  <si>
+    <t>8600</t>
   </si>
 </sst>
 </file>
@@ -842,25 +854,25 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>60</v>
@@ -902,13 +914,13 @@
         <v>31</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>62</v>
@@ -931,25 +943,25 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>79</v>
@@ -991,13 +1003,13 @@
         <v>31</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>59</v>
@@ -1020,25 +1032,25 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>60</v>
@@ -1080,7 +1092,7 @@
         <v>31</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AD4" s="1">
         <v>29</v>
@@ -1109,25 +1121,25 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>60</v>
@@ -1136,46 +1148,46 @@
         <v>31</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>61750</v>
+        <v>104</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S5" s="1">
-        <v>407</v>
-      </c>
-      <c r="T5" s="1">
-        <v>939</v>
-      </c>
-      <c r="U5" s="1">
-        <v>3463</v>
+        <v>106</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>71</v>
@@ -1198,16 +1210,16 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>74</v>
@@ -1216,7 +1228,7 @@
         <v>64</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>75</v>
@@ -1240,7 +1252,7 @@
         <v>61</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="T6" s="1">
         <v>541</v>
@@ -1258,13 +1270,13 @@
         <v>31</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>72</v>
@@ -1287,7 +1299,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>50</v>
@@ -1296,7 +1308,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>74</v>
@@ -1305,7 +1317,7 @@
         <v>67</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>75</v>
@@ -1329,7 +1341,7 @@
         <v>61</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="T7" s="1">
         <v>541</v>
@@ -1347,7 +1359,7 @@
         <v>31</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AD7" s="1">
         <v>12</v>
@@ -1376,16 +1388,16 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>74</v>
@@ -1394,7 +1406,7 @@
         <v>73</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>75</v>
@@ -1418,7 +1430,7 @@
         <v>61</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="T8" s="1">
         <v>541</v>
@@ -1436,7 +1448,7 @@
         <v>31</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AD8" s="1">
         <v>12</v>
@@ -1466,7 +1478,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="Q3 H2:H8 Z5:AB5 AC4 AC7:AC8" numberStoredAsText="1"/>
+    <ignoredError sqref="Q3 H2:H8 AC4 AC7:AC8 Q5 Z5:AB5 S5:U5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>